--- a/diachi_db.xlsx
+++ b/diachi_db.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Newbie_PC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trung\BanHang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E37D1E-087B-45BF-AD9C-C24BD2E75AEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0561ED44-FC54-4C7C-95CC-2ACCC60F70C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5DAACEF9-A5B5-4186-BD40-ADD025385DF8}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="76">
   <si>
     <t>Cửa hàng</t>
   </si>
@@ -147,9 +147,6 @@
     <t>Chi tiết hóa đơn</t>
   </si>
   <si>
-    <t>ID Cửa hàng</t>
-  </si>
-  <si>
     <t>ID khách hàng</t>
   </si>
   <si>
@@ -171,30 +168,9 @@
     <t>Đơn giá bán</t>
   </si>
   <si>
-    <t xml:space="preserve">id </t>
-  </si>
-  <si>
-    <t>chuc vu</t>
-  </si>
-  <si>
-    <t>nhan vien</t>
-  </si>
-  <si>
-    <t>quan ly</t>
-  </si>
-  <si>
-    <t>quyen han</t>
-  </si>
-  <si>
     <t>order</t>
   </si>
   <si>
-    <t>FK id chuc vu</t>
-  </si>
-  <si>
-    <t>them xoa sua</t>
-  </si>
-  <si>
     <t>kiem ke</t>
   </si>
   <si>
@@ -253,6 +229,36 @@
   </si>
   <si>
     <t>Thành tiền</t>
+  </si>
+  <si>
+    <t>Nhân viên</t>
+  </si>
+  <si>
+    <t>id hoa don</t>
+  </si>
+  <si>
+    <t>fk hoa don</t>
+  </si>
+  <si>
+    <t>coca</t>
+  </si>
+  <si>
+    <t>fanta</t>
+  </si>
+  <si>
+    <t>24k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email </t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Giới tính</t>
+  </si>
+  <si>
+    <t>Ảnh đại diện</t>
   </si>
 </sst>
 </file>
@@ -358,44 +364,44 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -710,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E27C209-E686-4936-89B6-77345686C7EA}">
-  <dimension ref="A1:AN39"/>
+  <dimension ref="A1:AN58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27:G31"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Z10" sqref="Z10:AA10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,177 +728,177 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="G1" s="6" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="G1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="M1" s="6" t="s">
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="M1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="S1" s="6" t="s">
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="S1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="Y1" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AE1" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF1" s="6"/>
-      <c r="AG1" s="6"/>
-      <c r="AH1" s="6"/>
-      <c r="AK1" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL1" s="6"/>
-      <c r="AM1" s="6"/>
-      <c r="AN1" s="6"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="Y1" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AE1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="9"/>
+      <c r="AK1" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL1" s="9"/>
+      <c r="AM1" s="9"/>
+      <c r="AN1" s="9"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="6"/>
-      <c r="AG2" s="6"/>
-      <c r="AH2" s="6"/>
-      <c r="AK2" s="6"/>
-      <c r="AL2" s="6"/>
-      <c r="AM2" s="6"/>
-      <c r="AN2" s="6"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AE2" s="9"/>
+      <c r="AF2" s="9"/>
+      <c r="AG2" s="9"/>
+      <c r="AH2" s="9"/>
+      <c r="AK2" s="9"/>
+      <c r="AL2" s="9"/>
+      <c r="AM2" s="9"/>
+      <c r="AN2" s="9"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
-      <c r="AE3" s="6"/>
-      <c r="AF3" s="6"/>
-      <c r="AG3" s="6"/>
-      <c r="AH3" s="6"/>
-      <c r="AK3" s="6"/>
-      <c r="AL3" s="6"/>
-      <c r="AM3" s="6"/>
-      <c r="AN3" s="6"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
+      <c r="AE3" s="9"/>
+      <c r="AF3" s="9"/>
+      <c r="AG3" s="9"/>
+      <c r="AH3" s="9"/>
+      <c r="AK3" s="9"/>
+      <c r="AL3" s="9"/>
+      <c r="AM3" s="9"/>
+      <c r="AN3" s="9"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
-      <c r="AE4" s="6"/>
-      <c r="AF4" s="6"/>
-      <c r="AG4" s="6"/>
-      <c r="AH4" s="6"/>
-      <c r="AK4" s="6"/>
-      <c r="AL4" s="6"/>
-      <c r="AM4" s="6"/>
-      <c r="AN4" s="6"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="9"/>
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="9"/>
+      <c r="AG4" s="9"/>
+      <c r="AH4" s="9"/>
+      <c r="AK4" s="9"/>
+      <c r="AL4" s="9"/>
+      <c r="AM4" s="9"/>
+      <c r="AN4" s="9"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="6"/>
-      <c r="AE5" s="6"/>
-      <c r="AF5" s="6"/>
-      <c r="AG5" s="6"/>
-      <c r="AH5" s="6"/>
-      <c r="AK5" s="6"/>
-      <c r="AL5" s="6"/>
-      <c r="AM5" s="6"/>
-      <c r="AN5" s="6"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="9"/>
+      <c r="AG5" s="9"/>
+      <c r="AH5" s="9"/>
+      <c r="AK5" s="9"/>
+      <c r="AL5" s="9"/>
+      <c r="AM5" s="9"/>
+      <c r="AN5" s="9"/>
     </row>
     <row r="6" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="12"/>
+      <c r="C6" s="14"/>
       <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
@@ -901,10 +907,10 @@
       <c r="G6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="12"/>
+      <c r="I6" s="14"/>
       <c r="J6" s="1" t="s">
         <v>10</v>
       </c>
@@ -913,10 +919,10 @@
       <c r="M6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="12" t="s">
+      <c r="N6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="O6" s="12"/>
+      <c r="O6" s="14"/>
       <c r="P6" s="1" t="s">
         <v>10</v>
       </c>
@@ -937,25 +943,25 @@
       <c r="Y6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Z6" s="8" t="s">
+      <c r="Z6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="8"/>
+      <c r="AA6" s="13"/>
       <c r="AB6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="AE6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="AF6" s="13" t="s">
+      <c r="AF6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="AG6" s="13"/>
+      <c r="AG6" s="11"/>
       <c r="AH6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="AK6" s="4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="AL6" s="4" t="s">
         <v>15</v>
@@ -967,62 +973,62 @@
     </row>
     <row r="7" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="9"/>
+      <c r="C7" s="10"/>
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="10"/>
+      <c r="I7" s="12"/>
       <c r="J7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
-      <c r="N7" s="10" t="s">
+      <c r="N7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="O7" s="10"/>
+      <c r="O7" s="12"/>
       <c r="P7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
-      <c r="T7" s="10" t="s">
+      <c r="T7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="10"/>
+      <c r="U7" s="12"/>
       <c r="V7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
-      <c r="Z7" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA7" s="10"/>
+      <c r="Z7" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA7" s="12"/>
       <c r="AB7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AF7" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG7" s="10"/>
+      <c r="AF7" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG7" s="12"/>
       <c r="AH7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="AL7" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="AM7" s="2"/>
       <c r="AN7" s="2" t="s">
@@ -1031,10 +1037,10 @@
     </row>
     <row r="8" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="9"/>
+      <c r="C8" s="10"/>
       <c r="D8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1043,48 +1049,48 @@
       <c r="G8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="I8" s="8"/>
+      <c r="I8" s="13"/>
       <c r="J8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="10" t="s">
+      <c r="N8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="O8" s="10"/>
+      <c r="O8" s="12"/>
       <c r="P8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
       <c r="S8" s="4"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
       <c r="V8" s="4"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
-      <c r="Z8" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA8" s="10"/>
+      <c r="Z8" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA8" s="12"/>
       <c r="AB8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AF8" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG8" s="10"/>
+      <c r="AF8" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG8" s="12"/>
       <c r="AH8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="AL8" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="AM8" s="2"/>
       <c r="AN8" s="2" t="s">
@@ -1093,10 +1099,10 @@
     </row>
     <row r="9" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="9"/>
+      <c r="C9" s="10"/>
       <c r="D9" s="2" t="s">
         <v>5</v>
       </c>
@@ -1111,10 +1117,10 @@
       <c r="M9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N9" s="8" t="s">
+      <c r="N9" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="O9" s="8"/>
+      <c r="O9" s="13"/>
       <c r="P9" s="4" t="s">
         <v>10</v>
       </c>
@@ -1127,27 +1133,27 @@
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
-      <c r="Z9" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA9" s="10"/>
+      <c r="Z9" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA9" s="12"/>
       <c r="AB9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AF9" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG9" s="10"/>
+      <c r="AF9" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG9" s="12"/>
       <c r="AH9" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="10"/>
+      <c r="C10" s="12"/>
       <c r="D10" s="2" t="s">
         <v>10</v>
       </c>
@@ -1162,10 +1168,10 @@
       <c r="M10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N10" s="8" t="s">
+      <c r="N10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="O10" s="8"/>
+      <c r="O10" s="13"/>
       <c r="P10" s="4" t="s">
         <v>10</v>
       </c>
@@ -1178,8 +1184,8 @@
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="10"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
       <c r="AB10" s="2"/>
     </row>
     <row r="11" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
@@ -1198,10 +1204,10 @@
       <c r="M11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N11" s="13" t="s">
+      <c r="N11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="O11" s="13"/>
+      <c r="O11" s="11"/>
       <c r="P11" s="4" t="s">
         <v>10</v>
       </c>
@@ -1214,138 +1220,138 @@
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="10"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
       <c r="AB11" s="2"/>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="G13" s="6" t="s">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="G13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="M13" s="6" t="s">
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="M13" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="S13" s="7" t="s">
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="S13" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="Y13" s="6" t="s">
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="Y13" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="Z13" s="6"/>
-      <c r="AA13" s="6"/>
-      <c r="AB13" s="6"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="9"/>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
-      <c r="AA14" s="6"/>
-      <c r="AB14" s="6"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="9"/>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="6"/>
-      <c r="AA15" s="6"/>
-      <c r="AB15" s="6"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="16"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="9"/>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="6"/>
-      <c r="AA16" s="6"/>
-      <c r="AB16" s="6"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="16"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="9"/>
+      <c r="AB16" s="9"/>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="Y17" s="6"/>
-      <c r="Z17" s="6"/>
-      <c r="AA17" s="6"/>
-      <c r="AB17" s="6"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="16"/>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="9"/>
+      <c r="AA17" s="9"/>
+      <c r="AB17" s="9"/>
     </row>
     <row r="18" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="12"/>
+      <c r="C18" s="14"/>
       <c r="D18" s="1" t="s">
         <v>10</v>
       </c>
@@ -1361,82 +1367,88 @@
       <c r="J18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="S18" s="5" t="s">
+      <c r="M18" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="T18" s="11" t="s">
+      <c r="N18" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="U18" s="11"/>
-      <c r="V18" s="5" t="s">
+      <c r="O18" s="18"/>
+      <c r="P18" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="T18" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="U18" s="13"/>
+      <c r="V18" s="4" t="s">
         <v>10</v>
       </c>
       <c r="Y18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Z18" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA18" s="12"/>
+      <c r="Z18" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA18" s="14"/>
       <c r="AB18" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="10"/>
+      <c r="C19" s="12"/>
       <c r="D19" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I19" s="9"/>
+      <c r="I19" s="10"/>
       <c r="J19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M19" s="16"/>
-      <c r="N19" s="17" t="s">
+      <c r="M19" s="6"/>
+      <c r="N19" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="O19" s="17"/>
-      <c r="P19" s="18" t="s">
+      <c r="O19" s="15"/>
+      <c r="P19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="S19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="T19" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="U19" s="8"/>
+      <c r="T19" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="U19" s="13"/>
       <c r="V19" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="Z19" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA19" s="10"/>
+      <c r="Z19" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA19" s="12"/>
       <c r="AB19" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="10"/>
+      <c r="C20" s="12"/>
       <c r="D20" s="2" t="s">
         <v>10</v>
       </c>
@@ -1452,41 +1464,37 @@
       <c r="J20" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M20" s="16"/>
-      <c r="N20" s="9" t="s">
+      <c r="M20" s="6"/>
+      <c r="N20" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O20" s="9"/>
+      <c r="O20" s="10"/>
       <c r="P20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="S20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="T20" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="U20" s="8"/>
-      <c r="V20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z20" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA20" s="8"/>
-      <c r="AB20" s="4" t="s">
-        <v>10</v>
+      <c r="S20" s="4"/>
+      <c r="T20" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="U20" s="12"/>
+      <c r="V20" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="10"/>
+      <c r="C21" s="12"/>
       <c r="D21" s="2" t="s">
         <v>33</v>
       </c>
@@ -1496,30 +1504,28 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="O21" s="19"/>
-      <c r="P21" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="S21" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="T21" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="U21" s="8"/>
-      <c r="V21" s="4" t="s">
-        <v>10</v>
+      <c r="M21" s="6"/>
+      <c r="N21" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="O21" s="17"/>
+      <c r="P21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B22" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="10"/>
+      <c r="B22" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="12"/>
       <c r="D22" s="2" t="s">
         <v>33</v>
       </c>
@@ -1529,88 +1535,101 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="O22" s="10"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="O22" s="12"/>
       <c r="P22" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="20"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="8"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="23" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="M23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N23" s="8" t="s">
+      <c r="N23" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="O23" s="8"/>
+      <c r="O23" s="13"/>
       <c r="P23" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="T23" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="U23" s="10"/>
-      <c r="V23" s="20" t="s">
-        <v>10</v>
-      </c>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
     </row>
     <row r="24" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="13"/>
+      <c r="B24" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="11"/>
       <c r="D24" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M24" s="14" t="s">
+      <c r="M24" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N24" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="O24" s="8"/>
-      <c r="P24" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="T24" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="U24" s="10"/>
-      <c r="V24" s="20" t="s">
-        <v>33</v>
-      </c>
+      <c r="N24" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="O24" s="13"/>
+      <c r="P24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="8"/>
     </row>
     <row r="25" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="8"/>
+      <c r="C25" s="13"/>
       <c r="D25" s="4" t="s">
         <v>10</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="Y25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z25" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA25" s="13"/>
+      <c r="AB25" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="M27" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
+      <c r="M27" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
     </row>
     <row r="28" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="M28" s="2" t="s">
@@ -1622,7 +1641,7 @@
     </row>
     <row r="29" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="M29" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -1630,7 +1649,7 @@
     </row>
     <row r="30" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="M30" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -1652,61 +1671,37 @@
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
     </row>
-    <row r="33" spans="5:24" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E33" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G33" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
-      <c r="T33" t="s">
-        <v>46</v>
-      </c>
-      <c r="U33" t="s">
-        <v>47</v>
-      </c>
-      <c r="W33" t="s">
-        <v>52</v>
-      </c>
-      <c r="X33" t="s">
+    </row>
+    <row r="34" spans="5:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E34" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="34" spans="5:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E34" t="s">
-        <v>58</v>
-      </c>
       <c r="G34" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
-      <c r="T34">
-        <v>1</v>
-      </c>
-      <c r="U34" t="s">
-        <v>48</v>
-      </c>
-      <c r="W34">
-        <v>1</v>
-      </c>
-      <c r="X34" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="5:24" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="5:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E35" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -1715,22 +1710,10 @@
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
-      <c r="T35">
-        <v>2</v>
-      </c>
-      <c r="U35" t="s">
-        <v>49</v>
-      </c>
-      <c r="W35">
-        <v>2</v>
-      </c>
-      <c r="X35" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="5:24" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="5:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E36" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -1739,16 +1722,10 @@
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
-      <c r="W36">
-        <v>3</v>
-      </c>
-      <c r="X36" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="5:24" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="5:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E37" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -1757,69 +1734,201 @@
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
-      <c r="X37">
+    </row>
+    <row r="38" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="5:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="20"/>
+      <c r="N42" s="20"/>
+      <c r="O42" s="20"/>
+      <c r="P42" s="20"/>
+      <c r="Q42" s="20"/>
+    </row>
+    <row r="43" spans="5:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="K43" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="L43" s="20"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="O43" s="20"/>
+      <c r="P43" s="20"/>
+      <c r="Q43" s="20"/>
+    </row>
+    <row r="44" spans="5:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="K44" s="20">
+        <v>1</v>
+      </c>
+      <c r="L44" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="M44" s="20"/>
+      <c r="N44" s="20">
+        <v>1</v>
+      </c>
+      <c r="O44" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="P44" s="20">
+        <v>3</v>
+      </c>
+      <c r="Q44" s="20">
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="5:24" x14ac:dyDescent="0.25">
-      <c r="E38" t="s">
-        <v>55</v>
-      </c>
-      <c r="X38">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="39" spans="5:24" x14ac:dyDescent="0.25">
-      <c r="E39" t="s">
-        <v>56</v>
-      </c>
-      <c r="X39">
-        <v>13</v>
-      </c>
+    <row r="45" spans="5:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="K45" s="20"/>
+      <c r="L45" s="20"/>
+      <c r="M45" s="20"/>
+      <c r="N45" s="20">
+        <v>1</v>
+      </c>
+      <c r="O45" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="P45" s="20">
+        <v>4</v>
+      </c>
+      <c r="Q45" s="20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="5:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="K46" s="20"/>
+      <c r="L46" s="20"/>
+      <c r="M46" s="20"/>
+      <c r="N46" s="20"/>
+      <c r="O46" s="20"/>
+      <c r="P46" s="20"/>
+      <c r="Q46" s="20"/>
+    </row>
+    <row r="47" spans="5:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="20"/>
+      <c r="N47" s="20"/>
+      <c r="O47" s="20"/>
+      <c r="P47" s="20"/>
+      <c r="Q47" s="20"/>
+    </row>
+    <row r="48" spans="5:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="K48" s="20"/>
+      <c r="L48" s="20"/>
+      <c r="M48" s="20"/>
+      <c r="N48" s="20"/>
+      <c r="O48" s="20"/>
+      <c r="P48" s="20"/>
+      <c r="Q48" s="20"/>
+    </row>
+    <row r="49" spans="11:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="K49" s="20"/>
+      <c r="L49" s="20"/>
+      <c r="M49" s="20"/>
+      <c r="N49" s="20"/>
+      <c r="O49" s="20"/>
+      <c r="P49" s="20"/>
+      <c r="Q49" s="20"/>
+    </row>
+    <row r="50" spans="11:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="K50" s="20"/>
+      <c r="L50" s="20"/>
+      <c r="M50" s="20"/>
+      <c r="N50" s="20"/>
+      <c r="O50" s="20"/>
+      <c r="P50" s="20"/>
+      <c r="Q50" s="20"/>
+    </row>
+    <row r="51" spans="11:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="K51" s="20"/>
+      <c r="L51" s="20"/>
+      <c r="M51" s="20"/>
+      <c r="N51" s="20"/>
+      <c r="O51" s="20"/>
+      <c r="P51" s="20"/>
+      <c r="Q51" s="20"/>
+    </row>
+    <row r="52" spans="11:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="K52" s="20"/>
+      <c r="L52" s="20"/>
+      <c r="M52" s="20"/>
+      <c r="N52" s="20"/>
+      <c r="O52" s="20"/>
+      <c r="P52" s="20"/>
+      <c r="Q52" s="20"/>
+    </row>
+    <row r="53" spans="11:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="K53" s="20"/>
+      <c r="L53" s="20"/>
+      <c r="M53" s="20"/>
+      <c r="N53" s="20"/>
+      <c r="O53" s="20"/>
+      <c r="P53" s="20"/>
+      <c r="Q53" s="20"/>
+    </row>
+    <row r="54" spans="11:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="K54" s="20"/>
+      <c r="L54" s="20"/>
+      <c r="M54" s="20"/>
+      <c r="N54" s="20"/>
+      <c r="O54" s="20"/>
+      <c r="P54" s="20"/>
+      <c r="Q54" s="20"/>
+    </row>
+    <row r="55" spans="11:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="K55" s="20"/>
+      <c r="L55" s="20"/>
+      <c r="M55" s="20"/>
+      <c r="N55" s="20"/>
+      <c r="O55" s="20"/>
+      <c r="P55" s="20"/>
+      <c r="Q55" s="20"/>
+    </row>
+    <row r="56" spans="11:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="K56" s="20"/>
+      <c r="L56" s="20"/>
+      <c r="M56" s="20"/>
+      <c r="N56" s="20"/>
+      <c r="O56" s="20"/>
+      <c r="P56" s="20"/>
+      <c r="Q56" s="20"/>
+    </row>
+    <row r="57" spans="11:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="K57" s="20"/>
+      <c r="L57" s="20"/>
+      <c r="M57" s="20"/>
+      <c r="N57" s="20"/>
+      <c r="O57" s="20"/>
+      <c r="P57" s="20"/>
+      <c r="Q57" s="20"/>
+    </row>
+    <row r="58" spans="11:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="K58" s="20"/>
+      <c r="L58" s="20"/>
+      <c r="M58" s="20"/>
+      <c r="N58" s="20"/>
+      <c r="O58" s="20"/>
+      <c r="P58" s="20"/>
+      <c r="Q58" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="63">
-    <mergeCell ref="AK1:AN5"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="AE1:AH5"/>
-    <mergeCell ref="AF6:AG6"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="AF8:AG8"/>
-    <mergeCell ref="AF9:AG9"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="Z18:AA18"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="G1:J5"/>
-    <mergeCell ref="M1:P5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="S1:V5"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="Y1:AB5"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
+  <mergeCells count="62">
+    <mergeCell ref="Y13:AB17"/>
+    <mergeCell ref="S13:V17"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="T18:U18"/>
     <mergeCell ref="N10:O10"/>
     <mergeCell ref="A1:D5"/>
     <mergeCell ref="B24:C24"/>
@@ -1834,14 +1943,49 @@
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="M13:P17"/>
+    <mergeCell ref="N18:O18"/>
     <mergeCell ref="N24:O24"/>
-    <mergeCell ref="Y13:AB17"/>
-    <mergeCell ref="S13:V17"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="G1:J5"/>
+    <mergeCell ref="M1:P5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="Z25:AA25"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="T22:U22"/>
     <mergeCell ref="T20:U20"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="AK1:AN5"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="AE1:AH5"/>
+    <mergeCell ref="AF6:AG6"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="AF8:AG8"/>
+    <mergeCell ref="AF9:AG9"/>
+    <mergeCell ref="S1:V5"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="Y1:AB5"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="N9:O9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/diachi_db.xlsx
+++ b/diachi_db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trung\BanHang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0561ED44-FC54-4C7C-95CC-2ACCC60F70C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB6A863-12D4-4702-9475-D15A6CAB3B22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5DAACEF9-A5B5-4186-BD40-ADD025385DF8}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="73">
   <si>
     <t>Cửa hàng</t>
   </si>
@@ -81,9 +81,6 @@
     <t>ID chức vụ</t>
   </si>
   <si>
-    <t>Chức vụ</t>
-  </si>
-  <si>
     <t>Tên chức vụ</t>
   </si>
   <si>
@@ -186,36 +183,9 @@
     <t>id chuc vu</t>
   </si>
   <si>
-    <t>Order</t>
-  </si>
-  <si>
-    <t>Tạo mới</t>
-  </si>
-  <si>
-    <t>Cập nhật</t>
-  </si>
-  <si>
-    <t>Hủy đơn</t>
-  </si>
-  <si>
-    <t>Quản lý tài khoản</t>
-  </si>
-  <si>
-    <t>Disable</t>
-  </si>
-  <si>
     <t>Tồn kho</t>
   </si>
   <si>
-    <t xml:space="preserve">FK </t>
-  </si>
-  <si>
-    <t>Nhập số liệu</t>
-  </si>
-  <si>
-    <t>Xem thống kê</t>
-  </si>
-  <si>
     <t>*Khi in ra cho khách</t>
   </si>
   <si>
@@ -234,21 +204,6 @@
     <t>Nhân viên</t>
   </si>
   <si>
-    <t>id hoa don</t>
-  </si>
-  <si>
-    <t>fk hoa don</t>
-  </si>
-  <si>
-    <t>coca</t>
-  </si>
-  <si>
-    <t>fanta</t>
-  </si>
-  <si>
-    <t>24k</t>
-  </si>
-  <si>
     <t xml:space="preserve">Email </t>
   </si>
   <si>
@@ -259,6 +214,42 @@
   </si>
   <si>
     <t>Ảnh đại diện</t>
+  </si>
+  <si>
+    <t>Quyền hạn</t>
+  </si>
+  <si>
+    <t>Tạo mới order</t>
+  </si>
+  <si>
+    <t>Cập nhật order</t>
+  </si>
+  <si>
+    <t>Hủy order</t>
+  </si>
+  <si>
+    <t>tạo tài khoản</t>
+  </si>
+  <si>
+    <t>cập nhật tài khoản</t>
+  </si>
+  <si>
+    <t>disable tài khoản</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>Điểm</t>
+  </si>
+  <si>
+    <t>id cua hang</t>
+  </si>
+  <si>
+    <t>id san pham</t>
+  </si>
+  <si>
+    <t>gia</t>
   </si>
 </sst>
 </file>
@@ -356,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -370,25 +361,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -397,11 +372,35 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -718,187 +717,162 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E27C209-E686-4936-89B6-77345686C7EA}">
   <dimension ref="A1:AN58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Z10" sqref="Z10:AA10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N49" sqref="N49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="G1" s="9" t="s">
+    <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="G1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="M1" s="9" t="s">
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="M1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="S1" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="Y1" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AE1" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
-      <c r="AH1" s="9"/>
-      <c r="AK1" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL1" s="9"/>
-      <c r="AM1" s="9"/>
-      <c r="AN1" s="9"/>
-    </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="9"/>
-      <c r="AE2" s="9"/>
-      <c r="AF2" s="9"/>
-      <c r="AG2" s="9"/>
-      <c r="AH2" s="9"/>
-      <c r="AK2" s="9"/>
-      <c r="AL2" s="9"/>
-      <c r="AM2" s="9"/>
-      <c r="AN2" s="9"/>
-    </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="9"/>
-      <c r="AB3" s="9"/>
-      <c r="AE3" s="9"/>
-      <c r="AF3" s="9"/>
-      <c r="AG3" s="9"/>
-      <c r="AH3" s="9"/>
-      <c r="AK3" s="9"/>
-      <c r="AL3" s="9"/>
-      <c r="AM3" s="9"/>
-      <c r="AN3" s="9"/>
-    </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="9"/>
-      <c r="AA4" s="9"/>
-      <c r="AB4" s="9"/>
-      <c r="AE4" s="9"/>
-      <c r="AF4" s="9"/>
-      <c r="AG4" s="9"/>
-      <c r="AH4" s="9"/>
-      <c r="AK4" s="9"/>
-      <c r="AL4" s="9"/>
-      <c r="AM4" s="9"/>
-      <c r="AN4" s="9"/>
-    </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="9"/>
-      <c r="AA5" s="9"/>
-      <c r="AB5" s="9"/>
-      <c r="AE5" s="9"/>
-      <c r="AF5" s="9"/>
-      <c r="AG5" s="9"/>
-      <c r="AH5" s="9"/>
-      <c r="AK5" s="9"/>
-      <c r="AL5" s="9"/>
-      <c r="AM5" s="9"/>
-      <c r="AN5" s="9"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="S1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AK1" s="24"/>
+      <c r="AL1" s="24"/>
+      <c r="AM1" s="24"/>
+      <c r="AN1" s="24"/>
+    </row>
+    <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AK2" s="24"/>
+      <c r="AL2" s="24"/>
+      <c r="AM2" s="24"/>
+      <c r="AN2" s="24"/>
+    </row>
+    <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AK3" s="24"/>
+      <c r="AL3" s="24"/>
+      <c r="AM3" s="24"/>
+      <c r="AN3" s="24"/>
+    </row>
+    <row r="4" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="23"/>
+      <c r="AA4" s="23"/>
+      <c r="AB4" s="23"/>
+      <c r="AK4" s="24"/>
+      <c r="AL4" s="24"/>
+      <c r="AM4" s="24"/>
+      <c r="AN4" s="24"/>
+    </row>
+    <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="Y5" s="23"/>
+      <c r="Z5" s="23"/>
+      <c r="AA5" s="23"/>
+      <c r="AB5" s="23"/>
+      <c r="AK5" s="24"/>
+      <c r="AL5" s="24"/>
+      <c r="AM5" s="24"/>
+      <c r="AN5" s="24"/>
     </row>
     <row r="6" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="14"/>
+      <c r="C6" s="17"/>
       <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
@@ -907,10 +881,10 @@
       <c r="G6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="14"/>
+      <c r="I6" s="17"/>
       <c r="J6" s="1" t="s">
         <v>10</v>
       </c>
@@ -919,128 +893,93 @@
       <c r="M6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="14" t="s">
+      <c r="N6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="O6" s="14"/>
+      <c r="O6" s="17"/>
       <c r="P6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
-      <c r="S6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1" t="s">
+      <c r="S6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="T6" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="U6" s="14"/>
+      <c r="V6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
-      <c r="Y6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z6" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA6" s="13"/>
-      <c r="AB6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF6" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG6" s="11"/>
-      <c r="AH6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AK6" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL6" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="21"/>
+      <c r="AB6" s="4"/>
+      <c r="AK6" s="4"/>
+      <c r="AL6" s="4"/>
       <c r="AM6" s="4"/>
-      <c r="AN6" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="AN6" s="4"/>
     </row>
     <row r="7" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="12"/>
+      <c r="H7" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="18"/>
       <c r="J7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
-      <c r="N7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="O7" s="12"/>
+      <c r="N7" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="O7" s="18"/>
       <c r="P7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="U7" s="12"/>
-      <c r="V7" s="2" t="s">
-        <v>20</v>
+      <c r="S7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="T7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="U7" s="14"/>
+      <c r="V7" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
-      <c r="Z7" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA7" s="12"/>
-      <c r="AB7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AF7" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG7" s="12"/>
-      <c r="AH7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AL7" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="Z7" s="22"/>
+      <c r="AA7" s="22"/>
+      <c r="AB7" s="2"/>
+      <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
-      <c r="AN7" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="AN7" s="2"/>
     </row>
     <row r="8" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="10"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1049,60 +988,49 @@
       <c r="G8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="I8" s="13"/>
+      <c r="I8" s="14"/>
       <c r="J8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="12" t="s">
+      <c r="N8" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="O8" s="12"/>
+      <c r="O8" s="18"/>
       <c r="P8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
       <c r="S8" s="4"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="4"/>
+      <c r="T8" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="U8" s="18"/>
+      <c r="V8" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
-      <c r="Z8" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AF8" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG8" s="12"/>
-      <c r="AH8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AL8" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="2"/>
+      <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
-      <c r="AN8" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="AN8" s="2"/>
     </row>
     <row r="9" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="2" t="s">
         <v>5</v>
       </c>
@@ -1117,10 +1045,10 @@
       <c r="M9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N9" s="13" t="s">
+      <c r="N9" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="O9" s="13"/>
+      <c r="O9" s="14"/>
       <c r="P9" s="4" t="s">
         <v>10</v>
       </c>
@@ -1133,27 +1061,16 @@
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
-      <c r="Z9" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA9" s="12"/>
-      <c r="AB9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AF9" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG9" s="12"/>
-      <c r="AH9" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="Z9" s="22"/>
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="2"/>
     </row>
     <row r="10" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
-      <c r="B10" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="12"/>
+      <c r="B10" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="18"/>
       <c r="D10" s="2" t="s">
         <v>10</v>
       </c>
@@ -1168,10 +1085,10 @@
       <c r="M10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N10" s="13" t="s">
+      <c r="N10" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="O10" s="13"/>
+      <c r="O10" s="14"/>
       <c r="P10" s="4" t="s">
         <v>10</v>
       </c>
@@ -1184,8 +1101,8 @@
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="12"/>
+      <c r="Z10" s="22"/>
+      <c r="AA10" s="22"/>
       <c r="AB10" s="2"/>
     </row>
     <row r="11" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
@@ -1204,10 +1121,10 @@
       <c r="M11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N11" s="11" t="s">
+      <c r="N11" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="O11" s="11"/>
+      <c r="O11" s="15"/>
       <c r="P11" s="4" t="s">
         <v>10</v>
       </c>
@@ -1220,138 +1137,138 @@
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="12"/>
+      <c r="Z11" s="22"/>
+      <c r="AA11" s="22"/>
       <c r="AB11" s="2"/>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="G13" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="M13" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="S13" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
-      <c r="Y13" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z13" s="9"/>
-      <c r="AA13" s="9"/>
-      <c r="AB13" s="9"/>
+      <c r="A13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="G13" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="M13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="S13" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="Y13" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="9"/>
-      <c r="AA14" s="9"/>
-      <c r="AB14" s="9"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="11"/>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="16"/>
-      <c r="V15" s="16"/>
-      <c r="Y15" s="9"/>
-      <c r="Z15" s="9"/>
-      <c r="AA15" s="9"/>
-      <c r="AB15" s="9"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="16"/>
-      <c r="V16" s="16"/>
-      <c r="Y16" s="9"/>
-      <c r="Z16" s="9"/>
-      <c r="AA16" s="9"/>
-      <c r="AB16" s="9"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="16"/>
-      <c r="Y17" s="9"/>
-      <c r="Z17" s="9"/>
-      <c r="AA17" s="9"/>
-      <c r="AB17" s="9"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
     </row>
     <row r="18" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="14"/>
+      <c r="B18" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="17"/>
       <c r="D18" s="1" t="s">
         <v>10</v>
       </c>
@@ -1361,94 +1278,91 @@
         <v>3</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M18" s="19" t="s">
+      <c r="M18" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="N18" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="O18" s="18"/>
-      <c r="P18" s="19" t="s">
+      <c r="N18" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="O18" s="20"/>
+      <c r="P18" s="9" t="s">
         <v>10</v>
       </c>
       <c r="S18" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="T18" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="U18" s="13"/>
+      <c r="T18" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="U18" s="15"/>
       <c r="V18" s="4" t="s">
         <v>10</v>
       </c>
       <c r="Y18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Z18" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA18" s="14"/>
+      <c r="Z18" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA18" s="17"/>
       <c r="AB18" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
-      <c r="B19" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="12"/>
+      <c r="B19" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="18"/>
       <c r="D19" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I19" s="10"/>
+      <c r="H19" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" s="19"/>
       <c r="J19" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M19" s="6"/>
-      <c r="N19" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="O19" s="15"/>
+      <c r="N19" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O19" s="16"/>
       <c r="P19" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="S19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="T19" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="U19" s="13"/>
-      <c r="V19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z19" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA19" s="12"/>
+      <c r="T19" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="U19" s="18"/>
+      <c r="V19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z19" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA19" s="18"/>
       <c r="AB19" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
-      <c r="B20" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="12"/>
+      <c r="B20" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="18"/>
       <c r="D20" s="2" t="s">
         <v>10</v>
       </c>
@@ -1465,38 +1379,37 @@
         <v>10</v>
       </c>
       <c r="M20" s="6"/>
-      <c r="N20" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="O20" s="10"/>
+      <c r="N20" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="O20" s="19"/>
       <c r="P20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="S20" s="4"/>
-      <c r="T20" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="U20" s="12"/>
-      <c r="V20" s="8" t="s">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="T20" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="U20" s="18"/>
+      <c r="V20" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="Y20" s="2"/>
-      <c r="Z20" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA20" s="2"/>
+      <c r="Z20" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA20" s="18"/>
       <c r="AB20" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
-      <c r="B21" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="12"/>
+      <c r="B21" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="18"/>
       <c r="D21" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -1505,29 +1418,36 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="M21" s="6"/>
-      <c r="N21" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="O21" s="17"/>
+      <c r="N21" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O21" s="13"/>
       <c r="P21" s="8" t="s">
         <v>10</v>
       </c>
+      <c r="T21" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="U21" s="18"/>
+      <c r="V21" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="Y21" s="2"/>
-      <c r="Z21" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA21" s="2"/>
+      <c r="Z21" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA21" s="18"/>
       <c r="AB21" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B22" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="12"/>
+      <c r="B22" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="18"/>
       <c r="D22" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -1536,104 +1456,144 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="M22" s="5"/>
-      <c r="N22" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="O22" s="12"/>
+      <c r="N22" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="O22" s="18"/>
       <c r="P22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="8"/>
+        <v>32</v>
+      </c>
+      <c r="T22" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="U22" s="18"/>
+      <c r="V22" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="Y22" s="2"/>
       <c r="Z22" s="2" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="AA22" s="2"/>
       <c r="AB22" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="M23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N23" s="13" t="s">
+      <c r="N23" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="O23" s="13"/>
+      <c r="O23" s="14"/>
       <c r="P23" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="T23" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="U23" s="18"/>
+      <c r="V23" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="Y23" s="2"/>
       <c r="Z23" s="2" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AA23" s="2"/>
-      <c r="AB23" s="2"/>
+      <c r="AB23" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="24" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="11"/>
+      <c r="B24" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="15"/>
       <c r="D24" s="4" t="s">
         <v>10</v>
       </c>
       <c r="M24" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N24" s="13" t="s">
+      <c r="N24" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="O24" s="14"/>
+      <c r="P24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="T24" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="O24" s="13"/>
-      <c r="P24" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="T24" s="12"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="8"/>
+      <c r="U24" s="18"/>
+      <c r="V24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z24" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA24" s="18"/>
+      <c r="AB24" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="25" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="13"/>
+      <c r="C25" s="14"/>
       <c r="D25" s="4" t="s">
         <v>10</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="T25" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="U25" s="18"/>
+      <c r="V25" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="Y25" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Z25" s="13" t="s">
+      <c r="Z25" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="AA25" s="13"/>
+      <c r="AA25" s="14"/>
       <c r="AB25" s="4" t="s">
         <v>10</v>
       </c>
     </row>
+    <row r="26" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="T26" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="U26" s="18"/>
+      <c r="V26" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="27" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="M27" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
+      <c r="M27" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
     </row>
     <row r="28" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="M28" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -1641,7 +1601,7 @@
     </row>
     <row r="29" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="M29" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -1649,7 +1609,7 @@
     </row>
     <row r="30" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="M30" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -1657,7 +1617,7 @@
     </row>
     <row r="31" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="M31" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -1665,7 +1625,7 @@
     </row>
     <row r="32" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="M32" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -1673,13 +1633,13 @@
     </row>
     <row r="33" spans="5:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="G33" t="s">
         <v>45</v>
       </c>
-      <c r="G33" t="s">
-        <v>46</v>
-      </c>
       <c r="M33" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -1687,13 +1647,13 @@
     </row>
     <row r="34" spans="5:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -1701,7 +1661,7 @@
     </row>
     <row r="35" spans="5:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -1713,7 +1673,7 @@
     </row>
     <row r="36" spans="5:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -1725,7 +1685,7 @@
     </row>
     <row r="37" spans="5:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -1737,198 +1697,227 @@
     </row>
     <row r="38" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="5:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="K42" s="20"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="20"/>
-      <c r="N42" s="20"/>
-      <c r="O42" s="20"/>
-      <c r="P42" s="20"/>
-      <c r="Q42" s="20"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
     </row>
     <row r="43" spans="5:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="K43" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="L43" s="20"/>
-      <c r="M43" s="20"/>
-      <c r="N43" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="O43" s="20"/>
-      <c r="P43" s="20"/>
-      <c r="Q43" s="20"/>
+      <c r="K43" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q43" s="10"/>
     </row>
     <row r="44" spans="5:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="K44" s="20">
+      <c r="K44" s="10">
         <v>1</v>
       </c>
-      <c r="L44" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="M44" s="20"/>
-      <c r="N44" s="20">
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10">
         <v>1</v>
       </c>
-      <c r="O44" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="P44" s="20">
+      <c r="O44" s="10"/>
+      <c r="P44" s="10">
+        <v>10000</v>
+      </c>
+      <c r="Q44" s="10"/>
+    </row>
+    <row r="45" spans="5:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="K45" s="10">
+        <v>1</v>
+      </c>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10">
+        <v>2</v>
+      </c>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10">
+        <v>1200</v>
+      </c>
+      <c r="Q45" s="10"/>
+    </row>
+    <row r="46" spans="5:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="K46" s="10">
         <v>3</v>
       </c>
-      <c r="Q44" s="20">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="5:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="K45" s="20"/>
-      <c r="L45" s="20"/>
-      <c r="M45" s="20"/>
-      <c r="N45" s="20">
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10">
         <v>1</v>
       </c>
-      <c r="O45" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="P45" s="20">
-        <v>4</v>
-      </c>
-      <c r="Q45" s="20">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="5:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="K46" s="20"/>
-      <c r="L46" s="20"/>
-      <c r="M46" s="20"/>
-      <c r="N46" s="20"/>
-      <c r="O46" s="20"/>
-      <c r="P46" s="20"/>
-      <c r="Q46" s="20"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10">
+        <v>10000</v>
+      </c>
+      <c r="Q46" s="10"/>
     </row>
     <row r="47" spans="5:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="K47" s="20"/>
-      <c r="L47" s="20"/>
-      <c r="M47" s="20"/>
-      <c r="N47" s="20"/>
-      <c r="O47" s="20"/>
-      <c r="P47" s="20"/>
-      <c r="Q47" s="20"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
     </row>
     <row r="48" spans="5:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="K48" s="20"/>
-      <c r="L48" s="20"/>
-      <c r="M48" s="20"/>
-      <c r="N48" s="20"/>
-      <c r="O48" s="20"/>
-      <c r="P48" s="20"/>
-      <c r="Q48" s="20"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10"/>
     </row>
     <row r="49" spans="11:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="K49" s="20"/>
-      <c r="L49" s="20"/>
-      <c r="M49" s="20"/>
-      <c r="N49" s="20"/>
-      <c r="O49" s="20"/>
-      <c r="P49" s="20"/>
-      <c r="Q49" s="20"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10"/>
+      <c r="Q49" s="10"/>
     </row>
     <row r="50" spans="11:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="K50" s="20"/>
-      <c r="L50" s="20"/>
-      <c r="M50" s="20"/>
-      <c r="N50" s="20"/>
-      <c r="O50" s="20"/>
-      <c r="P50" s="20"/>
-      <c r="Q50" s="20"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10"/>
+      <c r="Q50" s="10"/>
     </row>
     <row r="51" spans="11:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="K51" s="20"/>
-      <c r="L51" s="20"/>
-      <c r="M51" s="20"/>
-      <c r="N51" s="20"/>
-      <c r="O51" s="20"/>
-      <c r="P51" s="20"/>
-      <c r="Q51" s="20"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="10"/>
+      <c r="Q51" s="10"/>
     </row>
     <row r="52" spans="11:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="K52" s="20"/>
-      <c r="L52" s="20"/>
-      <c r="M52" s="20"/>
-      <c r="N52" s="20"/>
-      <c r="O52" s="20"/>
-      <c r="P52" s="20"/>
-      <c r="Q52" s="20"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="10"/>
+      <c r="Q52" s="10"/>
     </row>
     <row r="53" spans="11:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="K53" s="20"/>
-      <c r="L53" s="20"/>
-      <c r="M53" s="20"/>
-      <c r="N53" s="20"/>
-      <c r="O53" s="20"/>
-      <c r="P53" s="20"/>
-      <c r="Q53" s="20"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="10"/>
+      <c r="Q53" s="10"/>
     </row>
     <row r="54" spans="11:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="K54" s="20"/>
-      <c r="L54" s="20"/>
-      <c r="M54" s="20"/>
-      <c r="N54" s="20"/>
-      <c r="O54" s="20"/>
-      <c r="P54" s="20"/>
-      <c r="Q54" s="20"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="10"/>
+      <c r="O54" s="10"/>
+      <c r="P54" s="10"/>
+      <c r="Q54" s="10"/>
     </row>
     <row r="55" spans="11:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="K55" s="20"/>
-      <c r="L55" s="20"/>
-      <c r="M55" s="20"/>
-      <c r="N55" s="20"/>
-      <c r="O55" s="20"/>
-      <c r="P55" s="20"/>
-      <c r="Q55" s="20"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="10"/>
+      <c r="O55" s="10"/>
+      <c r="P55" s="10"/>
+      <c r="Q55" s="10"/>
     </row>
     <row r="56" spans="11:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="K56" s="20"/>
-      <c r="L56" s="20"/>
-      <c r="M56" s="20"/>
-      <c r="N56" s="20"/>
-      <c r="O56" s="20"/>
-      <c r="P56" s="20"/>
-      <c r="Q56" s="20"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
+      <c r="M56" s="10"/>
+      <c r="N56" s="10"/>
+      <c r="O56" s="10"/>
+      <c r="P56" s="10"/>
+      <c r="Q56" s="10"/>
     </row>
     <row r="57" spans="11:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="K57" s="20"/>
-      <c r="L57" s="20"/>
-      <c r="M57" s="20"/>
-      <c r="N57" s="20"/>
-      <c r="O57" s="20"/>
-      <c r="P57" s="20"/>
-      <c r="Q57" s="20"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="10"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="10"/>
+      <c r="O57" s="10"/>
+      <c r="P57" s="10"/>
+      <c r="Q57" s="10"/>
     </row>
     <row r="58" spans="11:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="K58" s="20"/>
-      <c r="L58" s="20"/>
-      <c r="M58" s="20"/>
-      <c r="N58" s="20"/>
-      <c r="O58" s="20"/>
-      <c r="P58" s="20"/>
-      <c r="Q58" s="20"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="10"/>
+      <c r="O58" s="10"/>
+      <c r="P58" s="10"/>
+      <c r="Q58" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
-    <mergeCell ref="Y13:AB17"/>
+  <mergeCells count="57">
+    <mergeCell ref="Z24:AA24"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="M27:P27"/>
     <mergeCell ref="S13:V17"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="T19:U19"/>
     <mergeCell ref="T18:U18"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="Z25:AA25"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="G1:J5"/>
+    <mergeCell ref="M1:P5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N8:O8"/>
     <mergeCell ref="N10:O10"/>
     <mergeCell ref="A1:D5"/>
     <mergeCell ref="B24:C24"/>
@@ -1945,47 +1934,13 @@
     <mergeCell ref="M13:P17"/>
     <mergeCell ref="N18:O18"/>
     <mergeCell ref="N24:O24"/>
-    <mergeCell ref="G1:J5"/>
-    <mergeCell ref="M1:P5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="Z18:AA18"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="Z25:AA25"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="AK1:AN5"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="AE1:AH5"/>
-    <mergeCell ref="AF6:AG6"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="AF8:AG8"/>
-    <mergeCell ref="AF9:AG9"/>
+    <mergeCell ref="Y13:AB17"/>
     <mergeCell ref="S1:V5"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="Y1:AB5"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="N21:O21"/>
     <mergeCell ref="T7:U7"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="Z21:AA21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
